--- a/DbLayouts/L4-批次作業/EmpDeductDtl.xlsx
+++ b/DbLayouts/L4-批次作業/EmpDeductDtl.xlsx
@@ -14,13 +14,14 @@
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
+    <sheet name="jason格式紀錄欄" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="132">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -409,13 +410,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>(JSON格式)報表:違約金、欠繳本金、欠繳利息、暫收抵繳</t>
-  </si>
-  <si>
     <t>JsonFields</t>
-  </si>
-  <si>
-    <t>jason格式紀錄欄</t>
   </si>
   <si>
     <t>EntryDate ASC, CustNo ASC, AchRepayCode DESC</t>
@@ -484,6 +479,58 @@
   </si>
   <si>
     <t>入帳時更新</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jason格式紀錄欄</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫收抵繳</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠繳本金</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>火險單號碼</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠繳利息</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>TempAmt</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breach</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShortPri</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShortInt</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>違約金</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuNo(split by ,)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫收抵繳 TempAmt
+欠繳本金 ShortPri
+欠繳利息 ShortInt
+違約金 Breach
+火險單號碼 InsuNo(split by ,)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -806,9 +853,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -820,6 +864,9 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1133,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1149,10 +1196,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="3" t="s">
         <v>91</v>
       </c>
@@ -1164,8 +1211,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1177,12 +1224,12 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="48.6">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -1192,10 +1239,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -1203,10 +1250,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="41"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1214,10 +1261,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="3"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1225,10 +1272,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1299,10 +1346,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>35</v>
@@ -1311,7 +1358,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1337,10 +1384,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>34</v>
@@ -1367,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1467,10 +1514,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>62</v>
@@ -1503,7 +1550,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>26</v>
@@ -1515,7 +1562,7 @@
         <v>8</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1536,7 +1583,7 @@
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1556,7 +1603,7 @@
         <v>8</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1576,7 +1623,7 @@
         <v>6</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1759,15 +1806,15 @@
       </c>
       <c r="G35" s="30"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" ht="81">
       <c r="A36" s="34">
         <v>28</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D36" s="34" t="s">
         <v>99</v>
@@ -1776,8 +1823,8 @@
         <v>300</v>
       </c>
       <c r="F36" s="33"/>
-      <c r="G36" s="37" t="s">
-        <v>104</v>
+      <c r="G36" s="41" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2025,7 +2072,7 @@
         <v>101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2041,4 +2088,66 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="43.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>